--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1601314.912436421</v>
+        <v>1598620.342164113</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2696891.392602771</v>
+        <v>2696891.392602768</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>206.8376814509481</v>
+        <v>312.5773721532817</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.8665353205015</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>124.5602774411421</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>248.2092831288392</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>316.6698668552779</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>144.7467681673239</v>
+        <v>254.3466294058584</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5859970782093</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>275.9365087858621</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>137.0432343228341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.02558024923824</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1387,10 +1387,10 @@
         <v>408.6710726488808</v>
       </c>
       <c r="H11" t="n">
-        <v>317.1548035061597</v>
+        <v>292.6289984175378</v>
       </c>
       <c r="I11" t="n">
-        <v>123.0727134769421</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>14.9956603364264</v>
       </c>
       <c r="S11" t="n">
         <v>156.6436591773999</v>
@@ -1426,19 +1426,19 @@
         <v>219.6894543054248</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1663978451077</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I12" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.71688629051014</v>
+        <v>11.71688629051015</v>
       </c>
       <c r="S12" t="n">
         <v>130.0030447201288</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>115.3999737951352</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9732717690249</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>232.6717799003976</v>
+        <v>211.7762046468481</v>
       </c>
       <c r="U13" t="n">
         <v>282.5755942905643</v>
       </c>
       <c r="V13" t="n">
-        <v>209.5478289578085</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>14.9956603364264</v>
       </c>
       <c r="S14" t="n">
         <v>156.6436591773999</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>173.8137627662053</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1663978451077</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>313.9476872465175</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I15" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.71688629051014</v>
+        <v>11.71688629051015</v>
       </c>
       <c r="S15" t="n">
         <v>130.0030447201288</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>78.67994101544049</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.65584247365966</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>115.3999737951352</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9732717690249</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>232.6717799003976</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5755942905643</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>190.8919864841489</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>374.5979635586554</v>
+        <v>408.6710726488808</v>
       </c>
       <c r="H17" t="n">
         <v>317.1548035061597</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.2513801319334406</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.6436591773999</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.6894543054248</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I18" t="n">
-        <v>42.26059371959866</v>
+        <v>42.26059371959867</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71688629051011</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S18" t="n">
         <v>130.0030447201288</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4100049457286</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.4878088856454</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>52.02497496651491</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>232.6717799003976</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5755942905643</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>259.6015227945846</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>408.6710726488808</v>
       </c>
       <c r="H20" t="n">
-        <v>317.1548035061597</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.6436591773999</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>94.47140276298505</v>
       </c>
       <c r="U20" t="n">
-        <v>39.96664379158012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71688629051012</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S21" t="n">
         <v>130.0030447201288</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -2250,13 +2250,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4100049457286</v>
       </c>
       <c r="H22" t="n">
-        <v>97.73233941983767</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>86.93488670182916</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>320.232738247428</v>
       </c>
       <c r="H23" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60631104006998</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.01045724913036</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>76.66783807881646</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2569,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.5485393681232</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>50.65306009718973</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2715,13 +2715,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>117.1456070830507</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2730,7 +2730,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>1.263405521906238</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0.7029068436218563</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,10 +2806,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>222.2172295452422</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9792467097657</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>35.29018096786481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>115.4085981035747</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>199.4528797341618</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -3195,16 +3195,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>150.1811081954332</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>184.6193440262945</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.5228189194846</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3283,10 +3283,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>171.8661539415763</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.6268341693152</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>216.2476087784232</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>23.01736778619321</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>51.65652736980091</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>85.11488120834282</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>118.8764767499167</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>32.11406875302376</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>320.2327382474276</v>
       </c>
       <c r="H41" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>60.93313188467462</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -3909,7 +3909,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>20.57869589565269</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.3029221927327</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>105.4779935141019</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3997,7 +3997,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>266.2196906538783</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.84804004782263</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>109.194848695833</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4158,7 +4158,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685202</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1214.05500132311</v>
+        <v>1575.70115429884</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.05500132311</v>
+        <v>1182.525652801771</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.05500132311</v>
+        <v>1182.525652801771</v>
       </c>
       <c r="E2" t="n">
-        <v>811.4714764396547</v>
+        <v>779.942127918315</v>
       </c>
       <c r="F2" t="n">
-        <v>394.5770379696324</v>
+        <v>363.0476894482928</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>353.2546601492709</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
-        <v>846.5749518677998</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.57585191238</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>1985.54878206622</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>1614.549747034507</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>1614.549747034507</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y2" t="n">
-        <v>1614.549747034507</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>745.9259573278729</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7311898206211</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C4" t="n">
-        <v>528.5260718866103</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D4" t="n">
-        <v>372.8929587891251</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E4" t="n">
-        <v>372.8929587891251</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F4" t="n">
-        <v>215.567024002098</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4515,25 +4515,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U4" t="n">
-        <v>824.8590032756731</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V4" t="n">
-        <v>824.8590032756731</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8590032756731</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8590032756731</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.8590032756731</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.3038739522049</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C5" t="n">
-        <v>376.3038739522049</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D5" t="n">
-        <v>376.3038739522049</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E5" t="n">
-        <v>376.3038739522049</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>56.43532157313636</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
@@ -4576,43 +4576,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2142.147902636596</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U5" t="n">
-        <v>1886.395173071195</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.288363774713</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W5" t="n">
-        <v>1173.289328743001</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X5" t="n">
-        <v>1173.289328743001</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y5" t="n">
-        <v>776.7986196636018</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>54.70361680265887</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>374.4427628648853</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083082</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>281.3932923185605</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="W7" t="n">
-        <v>281.3932923185605</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.594345002358</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C8" t="n">
-        <v>840.4188435052881</v>
+        <v>1137.494635074836</v>
       </c>
       <c r="D8" t="n">
-        <v>840.4188435052881</v>
+        <v>752.0535062915042</v>
       </c>
       <c r="E8" t="n">
-        <v>437.8353186218326</v>
+        <v>752.0535062915042</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313636</v>
+        <v>335.1590678214819</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>326.0367163498892</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
@@ -4810,46 +4810,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749188</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780698</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780698</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.089090713755</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.089090713755</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>140.0776713099949</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746813</v>
+        <v>140.0776713099949</v>
       </c>
       <c r="L9" t="n">
-        <v>678.1322124729945</v>
+        <v>623.6437572083081</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479596</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544164</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544164</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544164</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544164</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544164</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544164</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1772.672269130598</v>
+        <v>1598.30449254999</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.672269130598</v>
+        <v>1598.30449254999</v>
       </c>
       <c r="D11" t="n">
-        <v>1747.393905242479</v>
+        <v>1598.30449254999</v>
       </c>
       <c r="E11" t="n">
-        <v>1344.810380359023</v>
+        <v>1195.720967666534</v>
       </c>
       <c r="F11" t="n">
-        <v>927.915941889001</v>
+        <v>778.8265291965121</v>
       </c>
       <c r="G11" t="n">
-        <v>515.1168786073033</v>
+        <v>366.0274659148143</v>
       </c>
       <c r="H11" t="n">
-        <v>194.7584912273439</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="I11" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="J11" t="n">
-        <v>245.3460436923001</v>
+        <v>245.3460436923002</v>
       </c>
       <c r="K11" t="n">
-        <v>649.6707812504192</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L11" t="n">
         <v>1199.242306705369</v>
       </c>
       <c r="M11" t="n">
-        <v>1807.833542734109</v>
+        <v>1807.83354273411</v>
       </c>
       <c r="N11" t="n">
         <v>2399.247939428137</v>
@@ -5062,31 +5062,31 @@
         <v>3298.792287864732</v>
       </c>
       <c r="Q11" t="n">
-        <v>3522.130951420626</v>
+        <v>3522.130951420625</v>
       </c>
       <c r="R11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S11" t="n">
-        <v>3363.905033059616</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="T11" t="n">
-        <v>3141.996493357167</v>
+        <v>3126.84936170421</v>
       </c>
       <c r="U11" t="n">
-        <v>2886.272859170189</v>
+        <v>3126.84936170421</v>
       </c>
       <c r="V11" t="n">
-        <v>2544.166049873708</v>
+        <v>2784.742552407729</v>
       </c>
       <c r="W11" t="n">
-        <v>2173.167014841995</v>
+        <v>2784.742552407729</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.167014841995</v>
+        <v>2395.289947340786</v>
       </c>
       <c r="Y11" t="n">
-        <v>2173.167014841995</v>
+        <v>1998.799238261387</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>319.4133753939489</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5481499643172</v>
+        <v>199.5481499643171</v>
       </c>
       <c r="H12" t="n">
-        <v>113.1300874320476</v>
+        <v>113.1300874320475</v>
       </c>
       <c r="I12" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="J12" t="n">
-        <v>70.44261902841252</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K12" t="n">
-        <v>70.44261902841252</v>
+        <v>552.1127299859705</v>
       </c>
       <c r="L12" t="n">
-        <v>70.44261902841252</v>
+        <v>1077.089337532657</v>
       </c>
       <c r="M12" t="n">
-        <v>746.5383942106243</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="N12" t="n">
         <v>1100.862662568247</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="C13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="D13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="E13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="F13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="G13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="H13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="I13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="J13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="K13" t="n">
         <v>170.8543581260121</v>
       </c>
       <c r="L13" t="n">
-        <v>358.7537756907474</v>
+        <v>358.7537756907473</v>
       </c>
       <c r="M13" t="n">
-        <v>570.1093605549255</v>
+        <v>570.1093605549254</v>
       </c>
       <c r="N13" t="n">
-        <v>777.7670350576717</v>
+        <v>777.7670350576716</v>
       </c>
       <c r="O13" t="n">
-        <v>963.0719977419543</v>
+        <v>963.0719977419542</v>
       </c>
       <c r="P13" t="n">
         <v>1102.286535195199</v>
@@ -5223,28 +5223,28 @@
         <v>1119.097617728342</v>
       </c>
       <c r="R13" t="n">
-        <v>1002.531987632246</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S13" t="n">
-        <v>802.5589858453524</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T13" t="n">
-        <v>567.5369859459609</v>
+        <v>905.1822594992028</v>
       </c>
       <c r="U13" t="n">
-        <v>282.1070927231686</v>
+        <v>619.7523662764106</v>
       </c>
       <c r="V13" t="n">
-        <v>70.44261902841252</v>
+        <v>353.7730210972348</v>
       </c>
       <c r="W13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="X13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1623.078033043547</v>
+        <v>2401.694663323949</v>
       </c>
       <c r="C14" t="n">
-        <v>1623.078033043547</v>
+        <v>2008.51916182688</v>
       </c>
       <c r="D14" t="n">
         <v>1623.078033043547</v>
@@ -5272,13 +5272,13 @@
         <v>390.8010064083718</v>
       </c>
       <c r="H14" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="I14" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="J14" t="n">
-        <v>245.3460436923001</v>
+        <v>245.3460436923002</v>
       </c>
       <c r="K14" t="n">
         <v>649.6707812504195</v>
@@ -5287,43 +5287,43 @@
         <v>1199.242306705369</v>
       </c>
       <c r="M14" t="n">
-        <v>1807.83354273411</v>
+        <v>1807.833542734109</v>
       </c>
       <c r="N14" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O14" t="n">
         <v>2899.346156407833</v>
       </c>
       <c r="P14" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q14" t="n">
-        <v>3522.130951420626</v>
+        <v>3522.130951420625</v>
       </c>
       <c r="R14" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S14" t="n">
-        <v>3363.905033059616</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="T14" t="n">
-        <v>3363.905033059616</v>
+        <v>3173.188444067058</v>
       </c>
       <c r="U14" t="n">
-        <v>3108.181398872639</v>
+        <v>3173.188444067058</v>
       </c>
       <c r="V14" t="n">
-        <v>2791.062522866056</v>
+        <v>3173.188444067058</v>
       </c>
       <c r="W14" t="n">
-        <v>2420.063487834343</v>
+        <v>2802.189409035346</v>
       </c>
       <c r="X14" t="n">
-        <v>2420.063487834343</v>
+        <v>2802.189409035346</v>
       </c>
       <c r="Y14" t="n">
-        <v>2023.572778754944</v>
+        <v>2802.189409035346</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>319.4133753939489</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5481499643172</v>
+        <v>199.5481499643171</v>
       </c>
       <c r="H15" t="n">
-        <v>113.1300874320476</v>
+        <v>113.1300874320475</v>
       </c>
       <c r="I15" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="J15" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="K15" t="n">
-        <v>420.9788800391931</v>
+        <v>420.978880039193</v>
       </c>
       <c r="L15" t="n">
-        <v>945.95548758588</v>
+        <v>945.9554875858798</v>
       </c>
       <c r="M15" t="n">
-        <v>1622.051262768092</v>
+        <v>945.9554875858798</v>
       </c>
       <c r="N15" t="n">
-        <v>1622.051262768092</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O15" t="n">
-        <v>2183.948710652666</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P15" t="n">
-        <v>2183.948710652666</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q15" t="n">
         <v>2363.511000854018</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.28690435534148</v>
+        <v>475.7555379542929</v>
       </c>
       <c r="C16" t="n">
-        <v>89.28690435534148</v>
+        <v>305.5504200202821</v>
       </c>
       <c r="D16" t="n">
-        <v>89.28690435534148</v>
+        <v>149.9173069227969</v>
       </c>
       <c r="E16" t="n">
-        <v>89.28690435534148</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="F16" t="n">
-        <v>89.28690435534148</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="G16" t="n">
-        <v>89.28690435534148</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="H16" t="n">
-        <v>89.28690435534148</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="I16" t="n">
-        <v>89.28690435534148</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="J16" t="n">
-        <v>70.44261902841252</v>
+        <v>70.44261902841251</v>
       </c>
       <c r="K16" t="n">
         <v>170.8543581260121</v>
       </c>
       <c r="L16" t="n">
-        <v>358.7537756907474</v>
+        <v>358.7537756907473</v>
       </c>
       <c r="M16" t="n">
-        <v>570.1093605549255</v>
+        <v>570.1093605549254</v>
       </c>
       <c r="N16" t="n">
-        <v>777.7670350576717</v>
+        <v>777.7670350576716</v>
       </c>
       <c r="O16" t="n">
-        <v>963.0719977419543</v>
+        <v>963.0719977419542</v>
       </c>
       <c r="P16" t="n">
         <v>1102.286535195199</v>
@@ -5460,28 +5460,28 @@
         <v>1119.097617728342</v>
       </c>
       <c r="R16" t="n">
-        <v>1002.531987632246</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S16" t="n">
-        <v>802.5589858453524</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T16" t="n">
-        <v>567.5369859459609</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="U16" t="n">
-        <v>282.1070927231686</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="V16" t="n">
-        <v>89.28690435534148</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="W16" t="n">
-        <v>89.28690435534148</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="X16" t="n">
-        <v>89.28690435534148</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.28690435534148</v>
+        <v>660.9635566455942</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1964.693856531175</v>
+        <v>1985.054144179112</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.518355034106</v>
+        <v>1591.878642682043</v>
       </c>
       <c r="D17" t="n">
-        <v>1186.077226250773</v>
+        <v>1206.43751389871</v>
       </c>
       <c r="E17" t="n">
-        <v>1186.077226250773</v>
+        <v>803.8539890152549</v>
       </c>
       <c r="F17" t="n">
-        <v>769.182787780751</v>
+        <v>803.8539890152549</v>
       </c>
       <c r="G17" t="n">
-        <v>390.8010064083718</v>
+        <v>391.0549257335571</v>
       </c>
       <c r="H17" t="n">
-        <v>70.44261902841254</v>
+        <v>70.69653835359782</v>
       </c>
       <c r="I17" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J17" t="n">
-        <v>245.3460436923003</v>
+        <v>245.3460436923001</v>
       </c>
       <c r="K17" t="n">
-        <v>649.6707812504197</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L17" t="n">
         <v>1199.242306705369</v>
@@ -5527,40 +5527,40 @@
         <v>1807.83354273411</v>
       </c>
       <c r="N17" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O17" t="n">
-        <v>2899.346156407834</v>
+        <v>2899.346156407833</v>
       </c>
       <c r="P17" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q17" t="n">
-        <v>3522.130951420627</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="R17" t="n">
-        <v>3522.130951420627</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="S17" t="n">
-        <v>3522.130951420627</v>
+        <v>3363.905033059616</v>
       </c>
       <c r="T17" t="n">
-        <v>3522.130951420627</v>
+        <v>3141.996493357167</v>
       </c>
       <c r="U17" t="n">
-        <v>3522.130951420627</v>
+        <v>3141.996493357167</v>
       </c>
       <c r="V17" t="n">
-        <v>3522.130951420627</v>
+        <v>3141.996493357167</v>
       </c>
       <c r="W17" t="n">
-        <v>3151.131916388914</v>
+        <v>2770.997458325454</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.679311321971</v>
+        <v>2381.544853258511</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.188602242572</v>
+        <v>1985.054144179112</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>113.1300874320476</v>
       </c>
       <c r="I18" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J18" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="K18" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="L18" t="n">
-        <v>420.1366852106104</v>
+        <v>420.1366852106107</v>
       </c>
       <c r="M18" t="n">
-        <v>1096.232460392822</v>
+        <v>1096.232460392823</v>
       </c>
       <c r="N18" t="n">
         <v>1801.613552969444</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>600.745215760129</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="C19" t="n">
-        <v>600.745215760129</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="D19" t="n">
-        <v>445.1121026626437</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="E19" t="n">
-        <v>445.1121026626437</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="F19" t="n">
-        <v>445.1121026626437</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="G19" t="n">
-        <v>277.0211885760492</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H19" t="n">
-        <v>122.993098792569</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I19" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J19" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="K19" t="n">
-        <v>170.8543581260122</v>
+        <v>170.8543581260121</v>
       </c>
       <c r="L19" t="n">
-        <v>358.7537756907475</v>
+        <v>358.7537756907474</v>
       </c>
       <c r="M19" t="n">
-        <v>570.1093605549257</v>
+        <v>570.1093605549255</v>
       </c>
       <c r="N19" t="n">
-        <v>777.767035057672</v>
+        <v>777.7670350576717</v>
       </c>
       <c r="O19" t="n">
-        <v>963.0719977419546</v>
+        <v>963.0719977419543</v>
       </c>
       <c r="P19" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T19" t="n">
-        <v>884.0756178289513</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="U19" t="n">
-        <v>884.0756178289513</v>
+        <v>598.6457246061586</v>
       </c>
       <c r="V19" t="n">
-        <v>884.0756178289513</v>
+        <v>332.6663794269829</v>
       </c>
       <c r="W19" t="n">
-        <v>600.745215760129</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="X19" t="n">
-        <v>600.745215760129</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="Y19" t="n">
-        <v>600.745215760129</v>
+        <v>70.44261902841252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1582.216699970471</v>
+        <v>1695.895147160658</v>
       </c>
       <c r="C20" t="n">
-        <v>1189.041198473402</v>
+        <v>1302.719645663588</v>
       </c>
       <c r="D20" t="n">
-        <v>803.6000696900696</v>
+        <v>1302.719645663588</v>
       </c>
       <c r="E20" t="n">
-        <v>803.6000696900696</v>
+        <v>900.1361207801326</v>
       </c>
       <c r="F20" t="n">
-        <v>803.6000696900696</v>
+        <v>483.2416823101103</v>
       </c>
       <c r="G20" t="n">
-        <v>390.8010064083718</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H20" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I20" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J20" t="n">
-        <v>245.3460436923006</v>
+        <v>245.3460436923001</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6707812504196</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L20" t="n">
         <v>1199.242306705369</v>
@@ -5764,40 +5764,40 @@
         <v>1807.83354273411</v>
       </c>
       <c r="N20" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O20" t="n">
-        <v>2899.346156407834</v>
+        <v>2899.346156407833</v>
       </c>
       <c r="P20" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q20" t="n">
-        <v>3522.130951420627</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="R20" t="n">
-        <v>3522.130951420627</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S20" t="n">
-        <v>3522.130951420627</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="T20" t="n">
-        <v>3522.130951420627</v>
+        <v>3253.332242050109</v>
       </c>
       <c r="U20" t="n">
-        <v>3481.760604156404</v>
+        <v>3253.332242050109</v>
       </c>
       <c r="V20" t="n">
-        <v>3139.653794859923</v>
+        <v>3253.332242050109</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.65475982821</v>
+        <v>2882.333207018397</v>
       </c>
       <c r="X20" t="n">
-        <v>2379.202154761267</v>
+        <v>2492.880601951454</v>
       </c>
       <c r="Y20" t="n">
-        <v>1982.711445681868</v>
+        <v>2096.389892872055</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>113.1300874320476</v>
       </c>
       <c r="I21" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J21" t="n">
-        <v>201.5764689751901</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K21" t="n">
         <v>552.1127299859706</v>
@@ -5840,16 +5840,16 @@
         <v>1077.089337532658</v>
       </c>
       <c r="M21" t="n">
-        <v>1753.18511271487</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="N21" t="n">
-        <v>1801.613552969444</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O21" t="n">
-        <v>2363.511000854018</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P21" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q21" t="n">
         <v>2363.511000854018</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>650.5591969682189</v>
+        <v>1031.284600857808</v>
       </c>
       <c r="C22" t="n">
-        <v>480.3540790342081</v>
+        <v>861.0794829237971</v>
       </c>
       <c r="D22" t="n">
-        <v>324.7209659367228</v>
+        <v>705.4463698263119</v>
       </c>
       <c r="E22" t="n">
-        <v>169.1621537959253</v>
+        <v>549.8875576855144</v>
       </c>
       <c r="F22" t="n">
-        <v>169.1621537959253</v>
+        <v>392.5616228984873</v>
       </c>
       <c r="G22" t="n">
-        <v>169.1621537959253</v>
+        <v>224.4707088118927</v>
       </c>
       <c r="H22" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I22" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J22" t="n">
-        <v>70.44261902841254</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="K22" t="n">
-        <v>170.8543581260122</v>
+        <v>170.8543581260121</v>
       </c>
       <c r="L22" t="n">
         <v>358.7537756907474</v>
       </c>
       <c r="M22" t="n">
-        <v>570.1093605549256</v>
+        <v>570.1093605549255</v>
       </c>
       <c r="N22" t="n">
-        <v>777.7670350576718</v>
+        <v>777.7670350576717</v>
       </c>
       <c r="O22" t="n">
-        <v>963.0719977419544</v>
+        <v>963.0719977419543</v>
       </c>
       <c r="P22" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="U22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="V22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="W22" t="n">
-        <v>835.7672156595202</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="X22" t="n">
-        <v>835.7672156595202</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.7672156595202</v>
+        <v>1031.284600857808</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1269.229275930393</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C23" t="n">
-        <v>1269.229275930393</v>
+        <v>1505.34217171017</v>
       </c>
       <c r="D23" t="n">
-        <v>883.788147147061</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="E23" t="n">
-        <v>883.788147147061</v>
+        <v>717.3175180433821</v>
       </c>
       <c r="F23" t="n">
-        <v>883.788147147061</v>
+        <v>717.3175180433821</v>
       </c>
       <c r="G23" t="n">
-        <v>471.2302178339295</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H23" t="n">
-        <v>153.3413437095503</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I23" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130492</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
@@ -6007,7 +6007,7 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
         <v>3798.061577393173</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819845</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.667335788132</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X23" t="n">
-        <v>2066.214730721189</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y23" t="n">
-        <v>1669.72402164179</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758443</v>
+        <v>585.971282085385</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968184</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2968.287584290998</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C25" t="n">
-        <v>2968.287584290998</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D25" t="n">
-        <v>2968.287584290998</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E25" t="n">
-        <v>2968.287584290998</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F25" t="n">
-        <v>2968.287584290998</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G25" t="n">
-        <v>2941.004294140362</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H25" t="n">
-        <v>2787.937884177175</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I25" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>3488.271420568131</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>3253.711577637593</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U25" t="n">
-        <v>2968.287584290998</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V25" t="n">
-        <v>2968.287584290998</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W25" t="n">
-        <v>2968.287584290998</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X25" t="n">
-        <v>2968.287584290998</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="Y25" t="n">
-        <v>2968.287584290998</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2404.502628619254</v>
+        <v>2019.771506748671</v>
       </c>
       <c r="C26" t="n">
-        <v>2011.327127122184</v>
+        <v>1626.596005251601</v>
       </c>
       <c r="D26" t="n">
-        <v>1625.885998338852</v>
+        <v>1241.154876468269</v>
       </c>
       <c r="E26" t="n">
-        <v>1223.302473455396</v>
+        <v>838.5713515848136</v>
       </c>
       <c r="F26" t="n">
-        <v>806.4080349853741</v>
+        <v>421.6769131147913</v>
       </c>
       <c r="G26" t="n">
-        <v>393.8501056722426</v>
+        <v>421.6769131147913</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786345</v>
+        <v>103.7880389904121</v>
       </c>
       <c r="I26" t="n">
         <v>75.96123154786345</v>
@@ -6244,34 +6244,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R26" t="n">
         <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585818</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116326</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819845</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788132</v>
+        <v>3206.20956660641</v>
       </c>
       <c r="X26" t="n">
-        <v>2404.502628619254</v>
+        <v>2816.756961539467</v>
       </c>
       <c r="Y26" t="n">
-        <v>2404.502628619254</v>
+        <v>2420.266252460068</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>446.9164895271324</v>
       </c>
       <c r="L27" t="n">
-        <v>905.8728192384364</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M27" t="n">
-        <v>1614.008289530776</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N27" t="n">
-        <v>2352.277072610002</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P27" t="n">
         <v>2352.277072610002</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>519.598812068005</v>
+        <v>1035.73336916</v>
       </c>
       <c r="C28" t="n">
-        <v>519.598812068005</v>
+        <v>865.5282512259889</v>
       </c>
       <c r="D28" t="n">
-        <v>519.598812068005</v>
+        <v>709.8951381285037</v>
       </c>
       <c r="E28" t="n">
-        <v>401.2699160245195</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="F28" t="n">
-        <v>243.9439812374924</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H28" t="n">
         <v>75.96123154786345</v>
@@ -6423,13 +6423,13 @@
         <v>1222.217555045146</v>
       </c>
       <c r="W28" t="n">
-        <v>938.8871529763233</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="X28" t="n">
-        <v>704.8068307593063</v>
+        <v>1220.941387851301</v>
       </c>
       <c r="Y28" t="n">
-        <v>704.8068307593063</v>
+        <v>1220.941387851301</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1674.055825181743</v>
+        <v>2019.771506748671</v>
       </c>
       <c r="C29" t="n">
-        <v>1280.880323684673</v>
+        <v>1626.596005251601</v>
       </c>
       <c r="D29" t="n">
-        <v>895.4391949013411</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E29" t="n">
-        <v>492.8556700178857</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F29" t="n">
-        <v>75.96123154786346</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G29" t="n">
-        <v>75.96123154786346</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130504</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361771</v>
@@ -6493,22 +6493,22 @@
         <v>3798.061577393173</v>
       </c>
       <c r="T29" t="n">
-        <v>3798.061577393173</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U29" t="n">
-        <v>3573.599729367676</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="V29" t="n">
-        <v>3231.492920071194</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="W29" t="n">
-        <v>2860.493885039482</v>
+        <v>3206.20956660641</v>
       </c>
       <c r="X29" t="n">
-        <v>2471.041279972539</v>
+        <v>2816.756961539467</v>
       </c>
       <c r="Y29" t="n">
-        <v>2074.55057089314</v>
+        <v>2420.266252460068</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>313.8895596758443</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M30" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>519.598812068005</v>
+        <v>449.7957466137909</v>
       </c>
       <c r="C31" t="n">
-        <v>519.598812068005</v>
+        <v>279.5906286797801</v>
       </c>
       <c r="D31" t="n">
-        <v>519.598812068005</v>
+        <v>279.5906286797801</v>
       </c>
       <c r="E31" t="n">
-        <v>519.598812068005</v>
+        <v>279.5906286797801</v>
       </c>
       <c r="F31" t="n">
-        <v>519.598812068005</v>
+        <v>279.5906286797801</v>
       </c>
       <c r="G31" t="n">
-        <v>353.9632093308679</v>
+        <v>111.6078789901511</v>
       </c>
       <c r="H31" t="n">
-        <v>200.8967993676812</v>
+        <v>111.6078789901511</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
@@ -6657,16 +6657,16 @@
         <v>1222.217555045146</v>
       </c>
       <c r="V31" t="n">
-        <v>1222.217555045146</v>
+        <v>956.2382098659699</v>
       </c>
       <c r="W31" t="n">
-        <v>938.8871529763233</v>
+        <v>672.9078077971476</v>
       </c>
       <c r="X31" t="n">
-        <v>704.8068307593063</v>
+        <v>672.9078077971476</v>
       </c>
       <c r="Y31" t="n">
-        <v>704.8068307593063</v>
+        <v>449.7957466137909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1288.614696398411</v>
+        <v>2203.188096013637</v>
       </c>
       <c r="C32" t="n">
-        <v>895.4391949013411</v>
+        <v>1810.012594516567</v>
       </c>
       <c r="D32" t="n">
-        <v>895.4391949013411</v>
+        <v>1424.571465733235</v>
       </c>
       <c r="E32" t="n">
-        <v>492.8556700178857</v>
+        <v>1021.98794084978</v>
       </c>
       <c r="F32" t="n">
-        <v>75.96123154786345</v>
+        <v>605.0935023797573</v>
       </c>
       <c r="G32" t="n">
-        <v>75.96123154786345</v>
+        <v>192.5355730666258</v>
       </c>
       <c r="H32" t="n">
         <v>75.96123154786345</v>
@@ -6700,19 +6700,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K32" t="n">
         <v>705.3108151130497</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M32" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O32" t="n">
         <v>3115.769891361771</v>
@@ -6730,22 +6730,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T32" t="n">
-        <v>3443.862944053836</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U32" t="n">
-        <v>3188.158600584344</v>
+        <v>3389.626155871376</v>
       </c>
       <c r="V32" t="n">
-        <v>2846.051791287862</v>
+        <v>3389.626155871376</v>
       </c>
       <c r="W32" t="n">
-        <v>2475.05275625615</v>
+        <v>3389.626155871376</v>
       </c>
       <c r="X32" t="n">
-        <v>2085.600151189206</v>
+        <v>3000.173550804433</v>
       </c>
       <c r="Y32" t="n">
-        <v>1689.109442109808</v>
+        <v>2603.682841725034</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L33" t="n">
-        <v>313.8895596758443</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.025029968184</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>553.4975516656557</v>
+        <v>1035.73336916</v>
       </c>
       <c r="C34" t="n">
-        <v>383.2924337316449</v>
+        <v>865.5282512259889</v>
       </c>
       <c r="D34" t="n">
-        <v>227.6593206341597</v>
+        <v>709.8951381285037</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786345</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786345</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H34" t="n">
         <v>75.96123154786345</v>
@@ -6885,25 +6885,25 @@
         <v>1222.217555045146</v>
       </c>
       <c r="S34" t="n">
-        <v>1024.129563703551</v>
+        <v>1035.73336916</v>
       </c>
       <c r="T34" t="n">
-        <v>1024.129563703551</v>
+        <v>1035.73336916</v>
       </c>
       <c r="U34" t="n">
-        <v>738.705570356957</v>
+        <v>1035.73336916</v>
       </c>
       <c r="V34" t="n">
-        <v>738.705570356957</v>
+        <v>1035.73336916</v>
       </c>
       <c r="W34" t="n">
-        <v>738.705570356957</v>
+        <v>1035.73336916</v>
       </c>
       <c r="X34" t="n">
-        <v>738.705570356957</v>
+        <v>1035.73336916</v>
       </c>
       <c r="Y34" t="n">
-        <v>738.705570356957</v>
+        <v>1035.73336916</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2519.522183495031</v>
+        <v>1867.040428696367</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.346681997961</v>
+        <v>1867.040428696367</v>
       </c>
       <c r="D35" t="n">
-        <v>1740.905553214629</v>
+        <v>1481.599299913035</v>
       </c>
       <c r="E35" t="n">
-        <v>1338.322028331173</v>
+        <v>1079.015775029579</v>
       </c>
       <c r="F35" t="n">
-        <v>921.4275898611513</v>
+        <v>662.1213365595569</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>249.5634072464254</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786346</v>
@@ -6940,7 +6940,7 @@
         <v>270.9233280874837</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130496</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6964,25 +6964,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T35" t="n">
-        <v>3798.061577393173</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="U35" t="n">
-        <v>3542.357233923681</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="V35" t="n">
-        <v>3542.357233923681</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="W35" t="n">
-        <v>3542.357233923681</v>
+        <v>3053.478488554106</v>
       </c>
       <c r="X35" t="n">
-        <v>3152.904628856737</v>
+        <v>2664.025883487163</v>
       </c>
       <c r="Y35" t="n">
-        <v>2756.413919777338</v>
+        <v>2267.535174407764</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>446.9164895271324</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="L36" t="n">
-        <v>999.3489583586882</v>
+        <v>771.4743578797238</v>
       </c>
       <c r="M36" t="n">
-        <v>999.3489583586882</v>
+        <v>1479.609828172063</v>
       </c>
       <c r="N36" t="n">
-        <v>1019.255099689836</v>
+        <v>1479.609828172063</v>
       </c>
       <c r="O36" t="n">
-        <v>1611.238359252428</v>
+        <v>2071.593087734655</v>
       </c>
       <c r="P36" t="n">
         <v>2077.425419922113</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.96123154786346</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="C37" t="n">
-        <v>75.96123154786346</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="D37" t="n">
-        <v>75.96123154786346</v>
+        <v>546.6006056705276</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786346</v>
+        <v>391.0417935297301</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786346</v>
+        <v>391.0417935297301</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786346</v>
+        <v>223.0590438401011</v>
       </c>
       <c r="H37" t="n">
         <v>75.96123154786346</v>
@@ -7125,22 +7125,22 @@
         <v>1222.217555045146</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045146</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U37" t="n">
-        <v>936.7935616985517</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V37" t="n">
-        <v>936.7935616985517</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="W37" t="n">
-        <v>718.3616336395384</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="X37" t="n">
-        <v>484.2813114225214</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="Y37" t="n">
-        <v>261.1692502391647</v>
+        <v>702.2337187680127</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1606.50357052279</v>
+        <v>2519.522183495031</v>
       </c>
       <c r="C38" t="n">
-        <v>1213.32806902572</v>
+        <v>2126.346681997961</v>
       </c>
       <c r="D38" t="n">
-        <v>1213.32806902572</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E38" t="n">
-        <v>810.7445441422649</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F38" t="n">
-        <v>393.8501056722426</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G38" t="n">
-        <v>393.8501056722426</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786346</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585819</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116326</v>
+        <v>3622.080632890168</v>
       </c>
       <c r="V38" t="n">
-        <v>2826.666370819845</v>
+        <v>3279.973823593687</v>
       </c>
       <c r="W38" t="n">
-        <v>2455.667335788132</v>
+        <v>2908.974788561974</v>
       </c>
       <c r="X38" t="n">
-        <v>2403.489025313586</v>
+        <v>2519.522183495031</v>
       </c>
       <c r="Y38" t="n">
-        <v>2006.998316234187</v>
+        <v>2519.522183495031</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786346</v>
+        <v>224.8742212356257</v>
       </c>
       <c r="L39" t="n">
-        <v>313.8895596758443</v>
+        <v>777.3066900671814</v>
       </c>
       <c r="M39" t="n">
-        <v>1022.025029968184</v>
+        <v>1485.442160359521</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.29381304741</v>
+        <v>1485.442160359521</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.15829400933013</v>
+        <v>487.6997891058463</v>
       </c>
       <c r="C40" t="n">
-        <v>87.15829400933013</v>
+        <v>317.4946711718355</v>
       </c>
       <c r="D40" t="n">
-        <v>87.15829400933013</v>
+        <v>231.520043688661</v>
       </c>
       <c r="E40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K40" t="n">
         <v>188.6896288950475</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T40" t="n">
-        <v>677.8675552895655</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U40" t="n">
-        <v>392.4435619429715</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="V40" t="n">
-        <v>272.3663127006314</v>
+        <v>956.2382098659699</v>
       </c>
       <c r="W40" t="n">
-        <v>272.3663127006314</v>
+        <v>672.9078077971476</v>
       </c>
       <c r="X40" t="n">
-        <v>272.3663127006314</v>
+        <v>672.9078077971476</v>
       </c>
       <c r="Y40" t="n">
-        <v>272.3663127006314</v>
+        <v>672.9078077971476</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2135.066198310891</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.890696813822</v>
+        <v>1505.342171710169</v>
       </c>
       <c r="D41" t="n">
-        <v>1356.449568030489</v>
+        <v>1119.901042926837</v>
       </c>
       <c r="E41" t="n">
-        <v>953.8660431470339</v>
+        <v>717.3175180433816</v>
       </c>
       <c r="F41" t="n">
-        <v>921.4275898611513</v>
+        <v>717.3175180433816</v>
       </c>
       <c r="G41" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I41" t="n">
         <v>75.96123154786345</v>
@@ -7441,22 +7441,22 @@
         <v>3798.061577393172</v>
       </c>
       <c r="T41" t="n">
-        <v>3577.208601638122</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U41" t="n">
-        <v>3321.50425816863</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="V41" t="n">
-        <v>3321.50425816863</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W41" t="n">
-        <v>3321.50425816863</v>
+        <v>3084.955733064978</v>
       </c>
       <c r="X41" t="n">
-        <v>2932.051653101687</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2535.560944022288</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K42" t="n">
-        <v>446.9164895271324</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L42" t="n">
-        <v>446.9164895271324</v>
+        <v>585.9712820853852</v>
       </c>
       <c r="M42" t="n">
-        <v>1155.051959819472</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N42" t="n">
-        <v>1893.320742898698</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O42" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P42" t="n">
         <v>2352.277072610002</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.129563703551</v>
+        <v>1160.668936979818</v>
       </c>
       <c r="C43" t="n">
-        <v>853.9244457695399</v>
+        <v>990.4638190458068</v>
       </c>
       <c r="D43" t="n">
-        <v>698.2913326720548</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="E43" t="n">
-        <v>542.7325205312573</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="F43" t="n">
         <v>521.945959020497</v>
@@ -7596,25 +7596,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="W43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="X43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="Y43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2240.624482503721</v>
+        <v>2019.061499835921</v>
       </c>
       <c r="C44" t="n">
-        <v>1847.448981006651</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="D44" t="n">
-        <v>1740.905553214629</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E44" t="n">
-        <v>1338.322028331173</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F44" t="n">
-        <v>921.4275898611513</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G44" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H44" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I44" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874834</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130494</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
@@ -7684,16 +7684,16 @@
         <v>3798.061577393172</v>
       </c>
       <c r="V44" t="n">
-        <v>3798.061577393172</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W44" t="n">
-        <v>3427.06254236146</v>
+        <v>3084.955733064978</v>
       </c>
       <c r="X44" t="n">
-        <v>3037.609937294516</v>
+        <v>2816.046954626717</v>
       </c>
       <c r="Y44" t="n">
-        <v>2641.119228215117</v>
+        <v>2419.556245547318</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K45" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L45" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1171.865999441284</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="C46" t="n">
-        <v>1001.660881507273</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="D46" t="n">
-        <v>846.0277684097882</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="E46" t="n">
-        <v>690.4689562689907</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="F46" t="n">
-        <v>533.1430214819636</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G46" t="n">
-        <v>365.1602717923346</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H46" t="n">
-        <v>212.0938618291478</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I46" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
         <v>75.96123154786345</v>
@@ -7833,25 +7833,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T46" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="U46" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="W46" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>305.9795316023679</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8060,19 +8060,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2668652653155</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8224,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339695</v>
+        <v>412.734320667415</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703142958</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>351.5705978518757</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8458,10 +8458,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>506.8283140129054</v>
+        <v>466.71441446347</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>176.1461757257084</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274118</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186068</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>64.24358084136352</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>58.48873841560192</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>48.23153711108628</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>67.58833364533106</v>
       </c>
       <c r="N12" t="n">
-        <v>393.17125122948</v>
+        <v>35.26794985814431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>64.24358084136352</v>
+        <v>64.24358084136354</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>43.57487401342242</v>
       </c>
       <c r="N15" t="n">
-        <v>35.26794985814425</v>
+        <v>191.7398437797271</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>50.29631868833734</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>247.773037742894</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>64.24358084136348</v>
+        <v>64.24358084136352</v>
       </c>
       <c r="K18" t="n">
-        <v>58.48873841560184</v>
+        <v>58.48873841560192</v>
       </c>
       <c r="L18" t="n">
-        <v>401.4578665880537</v>
+        <v>401.4578665880541</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>50.29631868833727</v>
+        <v>50.29631868833735</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.39698703445765</v>
+        <v>66.39698703445771</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>67.58833364533079</v>
       </c>
       <c r="N21" t="n">
-        <v>84.18556627690565</v>
+        <v>35.26794985814427</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>50.29631868833729</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.39698703445768</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9722,19 +9722,19 @@
         <v>37.8634889524823</v>
       </c>
       <c r="L24" t="n">
-        <v>260.829988467765</v>
+        <v>535.6600111036648</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>50.0926368599559</v>
@@ -9959,19 +9959,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>484.0905961276874</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>308.9466910931282</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O27" t="n">
-        <v>16.46232962463525</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>50.09263685995591</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P30" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,25 +10430,25 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>31.31875908515959</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248231</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>11.2115456193539</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>22.15527392737965</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>31.79714283362768</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10904,16 +10904,16 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248231</v>
+        <v>188.2806502532522</v>
       </c>
       <c r="L39" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>25.905898199832</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11141,22 +11141,22 @@
         <v>52.1760984640634</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248234</v>
       </c>
       <c r="L42" t="n">
-        <v>20.49834389404703</v>
+        <v>535.6600111036649</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573996</v>
       </c>
       <c r="O42" t="n">
-        <v>480.054581858276</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>25.90589819983204</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>50.09263685995593</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.790719668435</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294512</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.1760984640634</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248234</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935396</v>
       </c>
       <c r="N45" t="n">
-        <v>430.0931537703125</v>
+        <v>2.048060461573996</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983204</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995593</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,7 +23263,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>356.5611372462607</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24.52580508862189</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>123.0727134769421</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.99566033642639</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1663978451077</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>126.906482568077</v>
       </c>
       <c r="J13" t="n">
-        <v>18.65584247365966</v>
+        <v>18.65584247365967</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>115.3999737951352</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.89557525354945</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>53.77172276957546</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14.99566033642638</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.6894543054248</v>
+        <v>45.87569153921953</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1663978451077</v>
       </c>
       <c r="V14" t="n">
-        <v>24.73805395699924</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>75.32328300394902</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
@@ -23676,7 +23676,7 @@
         <v>126.906482568077</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.65584247365967</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>115.3999737951352</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5755942905643</v>
       </c>
       <c r="V16" t="n">
-        <v>72.42756524323514</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>34.07310909022544</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>123.0727134769421</v>
+        <v>122.8213333450086</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.99566033642633</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S17" t="n">
-        <v>156.6436591773999</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.6894543054248</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1663978451077</v>
@@ -23895,7 +23895,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23904,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4100049457286</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I19" t="n">
-        <v>74.88150760156205</v>
+        <v>126.906482568077</v>
       </c>
       <c r="J19" t="n">
-        <v>18.65584247365964</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5755942905643</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>20.89557525354951</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>317.1548035061597</v>
       </c>
       <c r="I20" t="n">
         <v>123.0727134769421</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.99566033642635</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.6436591773999</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.6894543054248</v>
+        <v>125.2180515424397</v>
       </c>
       <c r="U20" t="n">
-        <v>213.1997540535276</v>
+        <v>253.1663978451077</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4100049457286</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>54.75546946580772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>126.906482568077</v>
       </c>
       <c r="J22" t="n">
-        <v>18.65584247365964</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>133.9460538696939</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>88.19961177257215</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>37.26304828694946</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>139.2924649436023</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>144.2131024927066</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270194</v>
+        <v>86.32081995889624</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>334.905018919084</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.85761693633883</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>123.6862121416195</v>
@@ -24663,10 +24663,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>230.4761134729405</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>380.8838106518771</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270194</v>
@@ -24733,13 +24733,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.93007048955507</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24852,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>2.323675482966962</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.39603117375469</v>
       </c>
       <c r="J31" t="n">
         <v>11.085091836852</v>
@@ -24897,16 +24897,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>199.3013872795606</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270194</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>19.19156626333775</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.822115823956295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>123.6862121416195</v>
@@ -25125,13 +25125,13 @@
         <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>11.48776740188433</v>
       </c>
       <c r="T34" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>161.9669793347983</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>142.843831441559</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>5.908911694239691</v>
       </c>
       <c r="I37" t="n">
         <v>123.6862121416195</v>
@@ -25365,7 +25365,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>64.24948926971098</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>230.129932248604</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>333.9015516464728</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>68.96190075816757</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>144.4430749774673</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>380.6114253322983</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>88.19961177257255</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>122.4228066197136</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>135.1739795435041</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
         <v>232.2142445012334</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>276.108723981397</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>119.3383883623954</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.5078984565656</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>44.80837532355655</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5697534131281</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653227.0408352752</v>
+        <v>653227.0408352753</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653227.0408352752</v>
+        <v>653227.0408352751</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653227.0408352753</v>
+        <v>653227.0408352752</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680840.4031121475</v>
+        <v>680840.4031121474</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680840.4031121477</v>
+        <v>680840.4031121475</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680840.4031121472</v>
+        <v>680840.4031121475</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>486896.8808520635</v>
+      </c>
+      <c r="C2" t="n">
         <v>486896.8808520637</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>486896.8808520635</v>
       </c>
-      <c r="D2" t="n">
-        <v>486896.8808520634</v>
-      </c>
       <c r="E2" t="n">
-        <v>370726.5547768212</v>
+        <v>370726.5547768211</v>
       </c>
       <c r="F2" t="n">
         <v>370726.5547768212</v>
       </c>
       <c r="G2" t="n">
-        <v>370726.5547768214</v>
+        <v>370726.5547768212</v>
       </c>
       <c r="H2" t="n">
         <v>370726.5547768211</v>
@@ -26337,25 +26337,25 @@
         <v>388777.4008801421</v>
       </c>
       <c r="J2" t="n">
-        <v>388777.4008801424</v>
+        <v>388777.4008801421</v>
       </c>
       <c r="K2" t="n">
-        <v>388777.4008801421</v>
+        <v>388777.4008801423</v>
       </c>
       <c r="L2" t="n">
         <v>388777.4008801422</v>
       </c>
       <c r="M2" t="n">
+        <v>388777.4008801423</v>
+      </c>
+      <c r="N2" t="n">
         <v>388777.4008801422</v>
       </c>
-      <c r="N2" t="n">
-        <v>388777.4008801421</v>
-      </c>
       <c r="O2" t="n">
+        <v>388777.4008801422</v>
+      </c>
+      <c r="P2" t="n">
         <v>388777.4008801423</v>
-      </c>
-      <c r="P2" t="n">
-        <v>388777.4008801419</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158280.8457253087</v>
+        <v>158280.8457253085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63043.86926392897</v>
+        <v>63043.86926392915</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72050.01288964314</v>
+        <v>72050.01288964305</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>63412.41553339369</v>
+        <v>63412.41553339368</v>
       </c>
       <c r="F4" t="n">
         <v>63412.41553339369</v>
@@ -26435,7 +26435,7 @@
         <v>63412.41553339368</v>
       </c>
       <c r="H4" t="n">
-        <v>63412.41553339367</v>
+        <v>63412.41553339368</v>
       </c>
       <c r="I4" t="n">
         <v>62313.22025902379</v>
@@ -26450,7 +26450,7 @@
         <v>62313.22025902379</v>
       </c>
       <c r="M4" t="n">
-        <v>62313.22025902379</v>
+        <v>62313.2202590238</v>
       </c>
       <c r="N4" t="n">
         <v>62313.22025902379</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717313</v>
       </c>
       <c r="E5" t="n">
         <v>55488.88038302909</v>
       </c>
       <c r="F5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="G5" t="n">
-        <v>55488.88038302911</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="H5" t="n">
-        <v>55488.88038302911</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357454</v>
@@ -26496,7 +26496,7 @@
         <v>60977.55903357454</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
         <v>60977.55903357454</v>
@@ -26505,7 +26505,7 @@
         <v>60977.55903357455</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="O5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7539.722278355446</v>
+        <v>7539.722278355097</v>
       </c>
       <c r="C6" t="n">
+        <v>205735.5282701002</v>
+      </c>
+      <c r="D6" t="n">
         <v>205735.5282701001</v>
       </c>
-      <c r="D6" t="n">
-        <v>205735.5282701</v>
-      </c>
       <c r="E6" t="n">
-        <v>93544.41313508971</v>
+        <v>93114.15266814448</v>
       </c>
       <c r="F6" t="n">
-        <v>251825.2588603984</v>
+        <v>251394.9983934531</v>
       </c>
       <c r="G6" t="n">
-        <v>251825.2588603986</v>
+        <v>251394.9983934531</v>
       </c>
       <c r="H6" t="n">
-        <v>251825.2588603983</v>
+        <v>251394.998393453</v>
       </c>
       <c r="I6" t="n">
-        <v>202442.7523236148</v>
+        <v>202079.3468422372</v>
       </c>
       <c r="J6" t="n">
-        <v>110747.1872219407</v>
+        <v>110383.7817405629</v>
       </c>
       <c r="K6" t="n">
-        <v>265486.6215875438</v>
+        <v>265123.2161061665</v>
       </c>
       <c r="L6" t="n">
-        <v>265486.6215875439</v>
+        <v>265123.2161061664</v>
       </c>
       <c r="M6" t="n">
-        <v>193436.6086979008</v>
+        <v>193073.2032165234</v>
       </c>
       <c r="N6" t="n">
-        <v>265486.6215875438</v>
+        <v>265123.2161061664</v>
       </c>
       <c r="O6" t="n">
-        <v>265486.621587544</v>
+        <v>265123.2161061664</v>
       </c>
       <c r="P6" t="n">
-        <v>265486.6215875436</v>
+        <v>265123.2161061665</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>89.56375786401742</v>
+      </c>
+      <c r="F3" t="n">
+        <v>89.56375786401742</v>
+      </c>
+      <c r="G3" t="n">
         <v>89.56375786401749</v>
       </c>
-      <c r="F3" t="n">
-        <v>89.56375786401752</v>
-      </c>
-      <c r="G3" t="n">
-        <v>89.5637578640177</v>
-      </c>
       <c r="H3" t="n">
-        <v>89.56375786401765</v>
+        <v>89.56375786401749</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.412126269295</v>
       </c>
       <c r="E4" t="n">
+        <v>880.5327378551564</v>
+      </c>
+      <c r="F4" t="n">
+        <v>880.5327378551564</v>
+      </c>
+      <c r="G4" t="n">
         <v>880.5327378551565</v>
       </c>
-      <c r="F4" t="n">
-        <v>880.5327378551566</v>
-      </c>
-      <c r="G4" t="n">
-        <v>880.5327378551567</v>
-      </c>
       <c r="H4" t="n">
-        <v>880.5327378551567</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482932</v>
@@ -26816,7 +26816,7 @@
         <v>949.5153943482932</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="L4" t="n">
         <v>949.5153943482932</v>
@@ -26825,7 +26825,7 @@
         <v>949.5153943482933</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="O4" t="n">
         <v>949.5153943482931</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89.56375786401749</v>
+        <v>89.56375786401742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59.38225393407049</v>
+        <v>59.38225393407065</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.1206115858618</v>
+        <v>289.1206115858614</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.98265649313646</v>
+        <v>68.98265649313669</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1206115858619</v>
+        <v>289.1206115858616</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1206115858618</v>
+        <v>289.1206115858614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>202.1934465059287</v>
+        <v>96.45375580359519</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27438,13 +27438,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.48940318388681</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>138.7592742862419</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>141.0344633532595</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>96.05562723004414</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27785,19 +27785,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>118.5727835600601</v>
+        <v>8.972922321525601</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>35.13949700711271</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>44.90571114331215</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27912,16 +27912,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.15966136820178</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28073,7 +28073,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>143.4538637253</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.36005530799605</v>
+        <v>0.3600553079960496</v>
       </c>
       <c r="H11" t="n">
-        <v>3.687416423014547</v>
+        <v>3.687416423014545</v>
       </c>
       <c r="I11" t="n">
-        <v>13.88103226151773</v>
+        <v>13.88103226151772</v>
       </c>
       <c r="J11" t="n">
-        <v>30.55924419702977</v>
+        <v>30.55924419702975</v>
       </c>
       <c r="K11" t="n">
-        <v>45.80038538450258</v>
+        <v>45.80038538450254</v>
       </c>
       <c r="L11" t="n">
-        <v>56.8194280165867</v>
+        <v>56.81942801658666</v>
       </c>
       <c r="M11" t="n">
-        <v>63.22256160016145</v>
+        <v>63.2225616001614</v>
       </c>
       <c r="N11" t="n">
-        <v>64.24556874400523</v>
+        <v>64.24556874400518</v>
       </c>
       <c r="O11" t="n">
-        <v>60.66526877511951</v>
+        <v>60.66526877511946</v>
       </c>
       <c r="P11" t="n">
-        <v>51.77640335896702</v>
+        <v>51.77640335896697</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.88192264135846</v>
+        <v>38.88192264135844</v>
       </c>
       <c r="R11" t="n">
-        <v>22.61732424090689</v>
+        <v>22.61732424090687</v>
       </c>
       <c r="S11" t="n">
-        <v>8.204760330959996</v>
+        <v>8.20476033095999</v>
       </c>
       <c r="T11" t="n">
-        <v>1.576142110752709</v>
+        <v>1.576142110752708</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02880442463968399</v>
+        <v>0.02880442463968397</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1926465735188301</v>
+        <v>0.1926465735188299</v>
       </c>
       <c r="H12" t="n">
-        <v>1.860560328458175</v>
+        <v>1.860560328458174</v>
       </c>
       <c r="I12" t="n">
-        <v>6.632787728608843</v>
+        <v>6.632787728608838</v>
       </c>
       <c r="J12" t="n">
-        <v>18.20087649196982</v>
+        <v>18.20087649196981</v>
       </c>
       <c r="K12" t="n">
-        <v>31.10819691773144</v>
+        <v>31.10819691773141</v>
       </c>
       <c r="L12" t="n">
-        <v>41.82880974583195</v>
+        <v>41.82880974583191</v>
       </c>
       <c r="M12" t="n">
-        <v>48.81224803588952</v>
+        <v>48.81224803588949</v>
       </c>
       <c r="N12" t="n">
-        <v>50.10416299602239</v>
+        <v>50.10416299602235</v>
       </c>
       <c r="O12" t="n">
-        <v>45.83552049857884</v>
+        <v>45.8355204985788</v>
       </c>
       <c r="P12" t="n">
-        <v>36.7870461309773</v>
+        <v>36.78704613097727</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.59116612145628</v>
+        <v>24.59116612145626</v>
       </c>
       <c r="R12" t="n">
-        <v>11.96098638040596</v>
+        <v>11.96098638040595</v>
       </c>
       <c r="S12" t="n">
-        <v>3.578325609001074</v>
+        <v>3.578325609001071</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7765008818587928</v>
+        <v>0.7765008818587923</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01267411667887041</v>
+        <v>0.01267411667887039</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1615084158203594</v>
+        <v>0.1615084158203593</v>
       </c>
       <c r="H13" t="n">
-        <v>1.43595664247556</v>
+        <v>1.435956642475559</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8569985412159</v>
+        <v>4.856998541215896</v>
       </c>
       <c r="J13" t="n">
-        <v>11.41864499849941</v>
+        <v>11.4186449984994</v>
       </c>
       <c r="K13" t="n">
-        <v>18.76434140167448</v>
+        <v>18.76434140167446</v>
       </c>
       <c r="L13" t="n">
-        <v>24.01189665751053</v>
+        <v>24.01189665751051</v>
       </c>
       <c r="M13" t="n">
-        <v>25.31717830900415</v>
+        <v>25.31717830900413</v>
       </c>
       <c r="N13" t="n">
-        <v>24.71519239549192</v>
+        <v>24.7151923954919</v>
       </c>
       <c r="O13" t="n">
-        <v>22.82848044704499</v>
+        <v>22.82848044704497</v>
       </c>
       <c r="P13" t="n">
-        <v>19.53370876430964</v>
+        <v>19.53370876430963</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.52412743746664</v>
+        <v>13.52412743746663</v>
       </c>
       <c r="R13" t="n">
-        <v>7.262005678613612</v>
+        <v>7.262005678613606</v>
       </c>
       <c r="S13" t="n">
-        <v>2.814651210251171</v>
+        <v>2.814651210251169</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6900814130506263</v>
+        <v>0.6900814130506258</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008809549953837795</v>
+        <v>0.008809549953837788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3600553079960501</v>
+        <v>0.3600553079960496</v>
       </c>
       <c r="H14" t="n">
-        <v>3.687416423014549</v>
+        <v>3.687416423014545</v>
       </c>
       <c r="I14" t="n">
-        <v>13.88103226151773</v>
+        <v>13.88103226151772</v>
       </c>
       <c r="J14" t="n">
-        <v>30.55924419702978</v>
+        <v>30.55924419702975</v>
       </c>
       <c r="K14" t="n">
-        <v>45.80038538450259</v>
+        <v>45.80038538450254</v>
       </c>
       <c r="L14" t="n">
-        <v>56.81942801658672</v>
+        <v>56.81942801658666</v>
       </c>
       <c r="M14" t="n">
-        <v>63.22256160016147</v>
+        <v>63.2225616001614</v>
       </c>
       <c r="N14" t="n">
-        <v>64.24556874400525</v>
+        <v>64.24556874400518</v>
       </c>
       <c r="O14" t="n">
-        <v>60.66526877511953</v>
+        <v>60.66526877511946</v>
       </c>
       <c r="P14" t="n">
-        <v>51.77640335896703</v>
+        <v>51.77640335896697</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.88192264135848</v>
+        <v>38.88192264135844</v>
       </c>
       <c r="R14" t="n">
-        <v>22.6173242409069</v>
+        <v>22.61732424090687</v>
       </c>
       <c r="S14" t="n">
-        <v>8.204760330959999</v>
+        <v>8.20476033095999</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57614211075271</v>
+        <v>1.576142110752708</v>
       </c>
       <c r="U14" t="n">
-        <v>0.028804424639684</v>
+        <v>0.02880442463968397</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1926465735188301</v>
+        <v>0.1926465735188299</v>
       </c>
       <c r="H15" t="n">
-        <v>1.860560328458176</v>
+        <v>1.860560328458174</v>
       </c>
       <c r="I15" t="n">
-        <v>6.632787728608846</v>
+        <v>6.632787728608838</v>
       </c>
       <c r="J15" t="n">
-        <v>18.20087649196983</v>
+        <v>18.20087649196981</v>
       </c>
       <c r="K15" t="n">
-        <v>31.10819691773144</v>
+        <v>31.10819691773141</v>
       </c>
       <c r="L15" t="n">
-        <v>41.82880974583196</v>
+        <v>41.82880974583191</v>
       </c>
       <c r="M15" t="n">
-        <v>48.81224803588954</v>
+        <v>48.81224803588949</v>
       </c>
       <c r="N15" t="n">
-        <v>50.10416299602241</v>
+        <v>50.10416299602235</v>
       </c>
       <c r="O15" t="n">
-        <v>45.83552049857885</v>
+        <v>45.8355204985788</v>
       </c>
       <c r="P15" t="n">
-        <v>36.78704613097731</v>
+        <v>36.78704613097727</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.59116612145628</v>
+        <v>24.59116612145626</v>
       </c>
       <c r="R15" t="n">
-        <v>11.96098638040597</v>
+        <v>11.96098638040595</v>
       </c>
       <c r="S15" t="n">
-        <v>3.578325609001075</v>
+        <v>3.578325609001071</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7765008818587931</v>
+        <v>0.7765008818587923</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01267411667887041</v>
+        <v>0.01267411667887039</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1615084158203594</v>
+        <v>0.1615084158203593</v>
       </c>
       <c r="H16" t="n">
-        <v>1.435956642475561</v>
+        <v>1.435956642475559</v>
       </c>
       <c r="I16" t="n">
-        <v>4.856998541215901</v>
+        <v>4.856998541215896</v>
       </c>
       <c r="J16" t="n">
-        <v>11.41864499849941</v>
+        <v>11.4186449984994</v>
       </c>
       <c r="K16" t="n">
-        <v>18.76434140167448</v>
+        <v>18.76434140167446</v>
       </c>
       <c r="L16" t="n">
-        <v>24.01189665751053</v>
+        <v>24.01189665751051</v>
       </c>
       <c r="M16" t="n">
-        <v>25.31717830900416</v>
+        <v>25.31717830900413</v>
       </c>
       <c r="N16" t="n">
-        <v>24.71519239549193</v>
+        <v>24.7151923954919</v>
       </c>
       <c r="O16" t="n">
-        <v>22.828480447045</v>
+        <v>22.82848044704497</v>
       </c>
       <c r="P16" t="n">
-        <v>19.53370876430965</v>
+        <v>19.53370876430963</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.52412743746664</v>
+        <v>13.52412743746663</v>
       </c>
       <c r="R16" t="n">
-        <v>7.262005678613614</v>
+        <v>7.262005678613606</v>
       </c>
       <c r="S16" t="n">
-        <v>2.814651210251172</v>
+        <v>2.814651210251169</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6900814130506265</v>
+        <v>0.6900814130506258</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008809549953837799</v>
+        <v>0.008809549953837788</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3600553079960508</v>
+        <v>0.36005530799605</v>
       </c>
       <c r="H17" t="n">
-        <v>3.687416423014556</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I17" t="n">
-        <v>13.88103226151776</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J17" t="n">
-        <v>30.55924419702984</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K17" t="n">
-        <v>45.80038538450268</v>
+        <v>45.80038538450258</v>
       </c>
       <c r="L17" t="n">
-        <v>56.81942801658683</v>
+        <v>56.8194280165867</v>
       </c>
       <c r="M17" t="n">
-        <v>63.2225616001616</v>
+        <v>63.22256160016145</v>
       </c>
       <c r="N17" t="n">
-        <v>64.24556874400538</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O17" t="n">
-        <v>60.66526877511965</v>
+        <v>60.66526877511951</v>
       </c>
       <c r="P17" t="n">
-        <v>51.77640335896714</v>
+        <v>51.77640335896702</v>
       </c>
       <c r="Q17" t="n">
-        <v>38.88192264135856</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R17" t="n">
-        <v>22.61732424090695</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S17" t="n">
-        <v>8.204760330960015</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T17" t="n">
-        <v>1.576142110752713</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02880442463968406</v>
+        <v>0.02880442463968399</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1926465735188305</v>
+        <v>0.1926465735188301</v>
       </c>
       <c r="H18" t="n">
-        <v>1.860560328458179</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I18" t="n">
-        <v>6.632787728608859</v>
+        <v>6.632787728608843</v>
       </c>
       <c r="J18" t="n">
-        <v>18.20087649196986</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K18" t="n">
-        <v>31.10819691773151</v>
+        <v>31.10819691773144</v>
       </c>
       <c r="L18" t="n">
-        <v>41.82880974583205</v>
+        <v>41.82880974583195</v>
       </c>
       <c r="M18" t="n">
-        <v>48.81224803588964</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N18" t="n">
-        <v>50.10416299602251</v>
+        <v>50.10416299602239</v>
       </c>
       <c r="O18" t="n">
-        <v>45.83552049857894</v>
+        <v>45.83552049857884</v>
       </c>
       <c r="P18" t="n">
-        <v>36.78704613097739</v>
+        <v>36.7870461309773</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.59116612145634</v>
+        <v>24.59116612145628</v>
       </c>
       <c r="R18" t="n">
-        <v>11.96098638040599</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S18" t="n">
-        <v>3.578325609001082</v>
+        <v>3.578325609001074</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7765008818587947</v>
+        <v>0.7765008818587928</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01267411667887043</v>
+        <v>0.01267411667887041</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1615084158203598</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H19" t="n">
-        <v>1.435956642475563</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I19" t="n">
-        <v>4.856998541215912</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J19" t="n">
-        <v>11.41864499849943</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K19" t="n">
-        <v>18.76434140167452</v>
+        <v>18.76434140167448</v>
       </c>
       <c r="L19" t="n">
-        <v>24.01189665751058</v>
+        <v>24.01189665751053</v>
       </c>
       <c r="M19" t="n">
-        <v>25.31717830900421</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N19" t="n">
-        <v>24.71519239549198</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O19" t="n">
-        <v>22.82848044704504</v>
+        <v>22.82848044704499</v>
       </c>
       <c r="P19" t="n">
-        <v>19.53370876430969</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.52412743746667</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R19" t="n">
-        <v>7.26200567861363</v>
+        <v>7.262005678613612</v>
       </c>
       <c r="S19" t="n">
-        <v>2.814651210251178</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T19" t="n">
-        <v>0.690081413050628</v>
+        <v>0.6900814130506263</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008809549953837816</v>
+        <v>0.008809549953837795</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3600553079960506</v>
+        <v>0.36005530799605</v>
       </c>
       <c r="H20" t="n">
-        <v>3.687416423014554</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I20" t="n">
-        <v>13.88103226151775</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J20" t="n">
-        <v>30.55924419702982</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K20" t="n">
-        <v>45.80038538450265</v>
+        <v>45.80038538450258</v>
       </c>
       <c r="L20" t="n">
-        <v>56.8194280165868</v>
+        <v>56.8194280165867</v>
       </c>
       <c r="M20" t="n">
-        <v>63.22256160016156</v>
+        <v>63.22256160016145</v>
       </c>
       <c r="N20" t="n">
-        <v>64.24556874400534</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O20" t="n">
-        <v>60.66526877511961</v>
+        <v>60.66526877511951</v>
       </c>
       <c r="P20" t="n">
-        <v>51.77640335896711</v>
+        <v>51.77640335896702</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.88192264135854</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R20" t="n">
-        <v>22.61732424090693</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S20" t="n">
-        <v>8.20476033096001</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T20" t="n">
-        <v>1.576142110752712</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02880442463968404</v>
+        <v>0.02880442463968399</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1926465735188304</v>
+        <v>0.1926465735188301</v>
       </c>
       <c r="H21" t="n">
-        <v>1.860560328458178</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I21" t="n">
-        <v>6.632787728608855</v>
+        <v>6.632787728608843</v>
       </c>
       <c r="J21" t="n">
-        <v>18.20087649196985</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K21" t="n">
-        <v>31.10819691773149</v>
+        <v>31.10819691773144</v>
       </c>
       <c r="L21" t="n">
-        <v>41.82880974583202</v>
+        <v>41.82880974583195</v>
       </c>
       <c r="M21" t="n">
-        <v>48.81224803588961</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N21" t="n">
-        <v>50.10416299602248</v>
+        <v>50.10416299602239</v>
       </c>
       <c r="O21" t="n">
-        <v>45.83552049857892</v>
+        <v>45.83552049857884</v>
       </c>
       <c r="P21" t="n">
-        <v>36.78704613097737</v>
+        <v>36.7870461309773</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.59116612145632</v>
+        <v>24.59116612145628</v>
       </c>
       <c r="R21" t="n">
-        <v>11.96098638040598</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S21" t="n">
-        <v>3.57832560900108</v>
+        <v>3.578325609001074</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7765008818587942</v>
+        <v>0.7765008818587928</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01267411667887043</v>
+        <v>0.01267411667887041</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1615084158203597</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H22" t="n">
-        <v>1.435956642475563</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I22" t="n">
-        <v>4.856998541215908</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J22" t="n">
-        <v>11.41864499849943</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K22" t="n">
-        <v>18.76434140167451</v>
+        <v>18.76434140167448</v>
       </c>
       <c r="L22" t="n">
-        <v>24.01189665751057</v>
+        <v>24.01189665751053</v>
       </c>
       <c r="M22" t="n">
-        <v>25.31717830900419</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N22" t="n">
-        <v>24.71519239549196</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O22" t="n">
-        <v>22.82848044704503</v>
+        <v>22.82848044704499</v>
       </c>
       <c r="P22" t="n">
-        <v>19.53370876430968</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.52412743746666</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R22" t="n">
-        <v>7.262005678613625</v>
+        <v>7.262005678613612</v>
       </c>
       <c r="S22" t="n">
-        <v>2.814651210251176</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6900814130506275</v>
+        <v>0.6900814130506263</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008809549953837811</v>
+        <v>0.008809549953837795</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>162.9211284231305</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34780,19 +34780,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>467.8947524111488</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34944,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.0716471098731</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.465299698096228</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>259.1834758025638</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>357.1032624151781</v>
+        <v>316.9893628657427</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>93.70171839237501</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940785</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.412126269295</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>555.1227529847977</v>
       </c>
       <c r="M11" t="n">
-        <v>614.738622251253</v>
+        <v>614.7386222512529</v>
       </c>
       <c r="N11" t="n">
-        <v>597.3882794889164</v>
+        <v>597.3882794889163</v>
       </c>
       <c r="O11" t="n">
-        <v>505.1497141209058</v>
+        <v>505.1497141209057</v>
       </c>
       <c r="P11" t="n">
         <v>403.4809408655547</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>354.0770313240207</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M12" t="n">
-        <v>682.9250254365776</v>
+        <v>24.01345963190864</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9033013713358</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>567.573179681388</v>
@@ -35509,7 +35509,7 @@
         <v>446.5056003899646</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.3235818334669</v>
+        <v>261.3235818334668</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35582,13 +35582,13 @@
         <v>209.7552267704507</v>
       </c>
       <c r="O13" t="n">
-        <v>187.1767299841239</v>
+        <v>187.1767299841238</v>
       </c>
       <c r="P13" t="n">
         <v>140.6207449022678</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.98089144761912</v>
+        <v>16.98089144761911</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K14" t="n">
         <v>408.4088258162822</v>
@@ -35655,16 +35655,16 @@
         <v>555.1227529847977</v>
       </c>
       <c r="M14" t="n">
-        <v>614.738622251253</v>
+        <v>614.7386222512529</v>
       </c>
       <c r="N14" t="n">
-        <v>597.3882794889164</v>
+        <v>597.3882794889163</v>
       </c>
       <c r="O14" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209057</v>
       </c>
       <c r="P14" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q14" t="n">
         <v>225.5946096524176</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>354.0770313240208</v>
+        <v>354.0770313240207</v>
       </c>
       <c r="L15" t="n">
         <v>530.27940156231</v>
       </c>
       <c r="M15" t="n">
-        <v>682.9250254365776</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>156.4718939215828</v>
       </c>
       <c r="O15" t="n">
         <v>567.573179681388</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.3760507084363</v>
+        <v>261.3235818334668</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L16" t="n">
         <v>189.7973914795305</v>
@@ -35819,13 +35819,13 @@
         <v>209.7552267704507</v>
       </c>
       <c r="O16" t="n">
-        <v>187.1767299841239</v>
+        <v>187.1767299841238</v>
       </c>
       <c r="P16" t="n">
         <v>140.6207449022678</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.98089144761913</v>
+        <v>16.98089144761911</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K17" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L17" t="n">
-        <v>555.1227529847978</v>
+        <v>555.1227529847977</v>
       </c>
       <c r="M17" t="n">
-        <v>614.7386222512531</v>
+        <v>614.738622251253</v>
       </c>
       <c r="N17" t="n">
-        <v>597.3882794889165</v>
+        <v>597.3882794889164</v>
       </c>
       <c r="O17" t="n">
-        <v>505.149714120906</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P17" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.5946096524177</v>
+        <v>225.5946096524176</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>353.2263294769675</v>
+        <v>353.2263294769679</v>
       </c>
       <c r="M18" t="n">
-        <v>682.9250254365777</v>
+        <v>682.9250254365776</v>
       </c>
       <c r="N18" t="n">
-        <v>712.5061541177994</v>
+        <v>712.5061541177993</v>
       </c>
       <c r="O18" t="n">
-        <v>567.5731796813881</v>
+        <v>567.573179681388</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L19" t="n">
-        <v>189.7973914795306</v>
+        <v>189.7973914795305</v>
       </c>
       <c r="M19" t="n">
-        <v>213.4904897617962</v>
+        <v>213.4904897617961</v>
       </c>
       <c r="N19" t="n">
-        <v>209.7552267704508</v>
+        <v>209.7552267704507</v>
       </c>
       <c r="O19" t="n">
         <v>187.1767299841239</v>
       </c>
       <c r="P19" t="n">
-        <v>140.6207449022679</v>
+        <v>140.6207449022678</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.98089144761916</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K20" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L20" t="n">
-        <v>555.1227529847978</v>
+        <v>555.1227529847977</v>
       </c>
       <c r="M20" t="n">
-        <v>614.7386222512531</v>
+        <v>614.738622251253</v>
       </c>
       <c r="N20" t="n">
-        <v>597.3882794889165</v>
+        <v>597.3882794889164</v>
       </c>
       <c r="O20" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P20" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.5946096524177</v>
+        <v>225.5946096524176</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.4584342896743</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K21" t="n">
         <v>354.0770313240208</v>
       </c>
       <c r="L21" t="n">
-        <v>530.2794015623101</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M21" t="n">
-        <v>682.9250254365777</v>
+        <v>24.01345963190841</v>
       </c>
       <c r="N21" t="n">
-        <v>48.91761641876145</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>567.5731796813881</v>
+        <v>567.573179681388</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>261.3235818334669</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L22" t="n">
         <v>189.7973914795305</v>
@@ -36299,7 +36299,7 @@
         <v>140.6207449022678</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.98089144761915</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737181</v>
+        <v>515.1616672096178</v>
       </c>
       <c r="M24" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>463.5922522336404</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>297.7351454737743</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470628</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>20.1072134658057</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N36" t="n">
-        <v>20.1072134658057</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P36" t="n">
-        <v>470.8960208784699</v>
+        <v>5.89124463379568</v>
       </c>
       <c r="Q36" t="n">
         <v>277.6279320079687</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.4171613007699</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>597.9628884470628</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>515.1616672096179</v>
       </c>
       <c r="M42" t="n">
         <v>715.288353830646</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>463.5922522336407</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>437.8095533018834</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419566</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M45" t="n">
-        <v>715.288353830646</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>428.0450933087386</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
